--- a/doc/api_parameter.xlsx
+++ b/doc/api_parameter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PTT-MH\Documents\GitHub\PTT-API-Solutions\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350DCD46-ECB0-4281-9A1E-A20CB9DF98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A06FED-C2A0-4999-8BCF-A7D327DC448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37986B06-555B-41A2-A6C6-93499108B497}"/>
   </bookViews>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE1DF26-4007-4372-A312-0752892B2D32}">
   <dimension ref="A1:AK78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:AK2"/>
     </sheetView>
   </sheetViews>
